--- a/app/libs/artify/downloads/file.xlsx
+++ b/app/libs/artify/downloads/file.xlsx
@@ -15,21 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
-  <si>
-    <t>Cantidad de Pacientes Registrados: 2</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>dassadad</t>
-  </si>
-  <si>
-    <t>sadsadsad</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+  <si>
+    <t>Cantidad de Pacientes Registrados: 1</t>
+  </si>
+  <si>
+    <t>Id personas</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>dasdsa</t>
+  </si>
+  <si>
+    <t>sadsad</t>
+  </si>
+  <si>
+    <t>dsasad</t>
   </si>
 </sst>
 </file>
@@ -411,50 +423,63 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="true" style="0"/>
     <col min="2" max="2" width="30" customWidth="true" style="0"/>
+    <col min="3" max="3" width="30" customWidth="true" style="0"/>
+    <col min="4" max="4" width="30" customWidth="true" style="0"/>
+    <col min="5" max="5" width="30" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/libs/artify/downloads/file.xlsx
+++ b/app/libs/artify/downloads/file.xlsx
@@ -35,13 +35,13 @@
     <t>Producto</t>
   </si>
   <si>
-    <t>dasdsa</t>
-  </si>
-  <si>
-    <t>sadsad</t>
-  </si>
-  <si>
-    <t>dsasad</t>
+    <t>manuel</t>
+  </si>
+  <si>
+    <t>rojas</t>
+  </si>
+  <si>
+    <t>ejemplo</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>8</v>

--- a/app/libs/artify/downloads/file.xlsx
+++ b/app/libs/artify/downloads/file.xlsx
@@ -15,33 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>Cantidad de Pacientes Registrados: 1</t>
   </si>
   <si>
-    <t>Id personas</t>
+    <t>Id</t>
   </si>
   <si>
     <t>Nombre</t>
   </si>
   <si>
-    <t>Apellido</t>
-  </si>
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>Producto</t>
-  </si>
-  <si>
     <t>manuel</t>
-  </si>
-  <si>
-    <t>rojas</t>
-  </si>
-  <si>
-    <t>ejemplo</t>
   </si>
 </sst>
 </file>
@@ -423,63 +408,42 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="true" style="0"/>
     <col min="2" max="2" width="30" customWidth="true" style="0"/>
-    <col min="3" max="3" width="30" customWidth="true" style="0"/>
-    <col min="4" max="4" width="30" customWidth="true" style="0"/>
-    <col min="5" max="5" width="30" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3">
-        <v>23</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/libs/artify/downloads/file.xlsx
+++ b/app/libs/artify/downloads/file.xlsx
@@ -15,18 +15,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
-  <si>
-    <t>Cantidad de Pacientes Registrados: 1</t>
-  </si>
-  <si>
-    <t>Id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+  <si>
+    <t>Cantidad de Pacientes Registrados: 2</t>
+  </si>
+  <si>
+    <t>Id personas</t>
   </si>
   <si>
     <t>Nombre</t>
   </si>
   <si>
-    <t>manuel</t>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Fecha nacimiento</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>pedro</t>
+  </si>
+  <si>
+    <t>rojas</t>
+  </si>
+  <si>
+    <t>2024-10-09</t>
+  </si>
+  <si>
+    <t>asdsadsadas</t>
+  </si>
+  <si>
+    <t>juan</t>
+  </si>
+  <si>
+    <t>olmedo</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>sasadadad</t>
   </si>
 </sst>
 </file>
@@ -408,42 +438,80 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="true" style="0"/>
     <col min="2" max="2" width="30" customWidth="true" style="0"/>
+    <col min="3" max="3" width="30" customWidth="true" style="0"/>
+    <col min="4" max="4" width="30" customWidth="true" style="0"/>
+    <col min="5" max="5" width="30" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
